--- a/SLAM_Ext/validation/LPEwaldSummationWTimeBenchmark.xlsx
+++ b/SLAM_Ext/validation/LPEwaldSummationWTimeBenchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/SLAM-3D-Extension/SLAM_Ext/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C1E593-8BEF-4E44-AB5D-18E8F8DF9530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB09500-A70E-9D45-92D7-9A3256D488FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27660" xr2:uid="{2E16FF99-654F-3E4A-AD50-24121DE73F8E}"/>
   </bookViews>
